--- a/data/trans_camb/P20_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>-9,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,51</t>
+          <t>-13,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,71</t>
+          <t>-12,17</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 3,84</t>
+          <t>-27,88; 7,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,32; -3,36</t>
+          <t>-29,72; 0,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,95; -2,52</t>
+          <t>-24,41; -1,16</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-50,15%</t>
+          <t>-49,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-54,58%</t>
+          <t>-57,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-53,65%</t>
+          <t>-54,43%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,4; 110,57</t>
+          <t>-92,45; 105,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,32; -10,1</t>
+          <t>-87,18; 21,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,82; -14,98</t>
+          <t>-81,12; -3,64</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-2,99</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 22,4</t>
+          <t>-31,23; 38,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 8,07</t>
+          <t>-17,04; 5,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 11,5</t>
+          <t>-18,81; 16,92</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,26%</t>
+          <t>-41,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,31%</t>
+          <t>-17,84%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-94,15; 460,3</t>
+          <t>-100,0; 426,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,8; 102,3</t>
+          <t>-87,9; 129,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,1; 137,21</t>
+          <t>-83,15; 183,85</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>2,69</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 28,42</t>
+          <t>-5,76; 19,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 6,85</t>
+          <t>-9,59; 11,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 14,08</t>
+          <t>-5,25; 10,15</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>151,64%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>18,4%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 774,78</t>
+          <t>-48,58; 480,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,5; 56,84</t>
+          <t>-42,0; 89,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 141,48</t>
+          <t>-29,01; 87,83</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>4,5</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 10,22</t>
+          <t>-8,44; 11,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 10,67</t>
+          <t>-3,08; 17,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 7,51</t>
+          <t>-1,88; 12,25</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>61,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>37,34%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 111,3</t>
+          <t>-52,57; 186,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 122,87</t>
+          <t>-17,17; 273,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 71,38</t>
+          <t>-13,86; 145,58</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>11,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>9,19</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,7; 14,16</t>
+          <t>1,27; 17,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 14,31</t>
+          <t>3,7; 22,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,53; 11,77</t>
+          <t>4,11; 15,77</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>353,01%</t>
+          <t>506,49%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>280,12%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>313,59%</t>
+          <t>1041,43%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,47; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,69; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36,5; 1460,88</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>2,2</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 16,6</t>
+          <t>-8,68; 19,36</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 12,89</t>
+          <t>-7,88; 9,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 11,59</t>
+          <t>-4,91; 11,34</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>75,36%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>36,9%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 441,01</t>
+          <t>-73,9; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-83,69; 636,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 245,92</t>
+          <t>-61,48; 713,91</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 9,39</t>
+          <t>-5,02; 11,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 2,49</t>
+          <t>-4,35; 4,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 4,53</t>
+          <t>-2,7; 6,05</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>9,47%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 125,01</t>
+          <t>-36,74; 125,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 20,6</t>
+          <t>-28,26; 46,3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 42,71</t>
+          <t>-19,68; 56,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,207 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,77</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-13,93</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-12,17</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-10.32953050854352</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-14.8059184708709</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-12.94715844230132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-27,88; 7,08</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-29,72; 0,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-24,41; -1,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-29.11001517708853</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-30.23256296440784</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-25.66446977484654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-49,01%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-57,69%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-54,43%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.884797688552768</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.1231212152996124</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1.9051314530437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-92,45; 105,42</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-87,18; 21,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-81,12; -3,64</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.5018434695067874</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.6133098414144883</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.5712605514912976</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.8849706826122716</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.8394081450280269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-31,23; 38,15</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,04; 5,67</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,81; 16,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.9850064548890415</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1289781027416699</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.01437135753005656</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,04%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-41,06%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-17,84%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-6.457556563777633</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.262038363353692</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.567156384790954</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 426,78</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-87,9; 129,64</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-83,15; 183,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-34.6069192724409</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.2992220881622</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-21.55102344802032</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.2374583307281</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.576722099890528</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.85196503474356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 19,04</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,59; 11,17</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 10,15</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.2978204673614664</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.4181435982253403</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.3255300617552175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>71,04%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="n">
+        <v>-0.8801325048150832</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.8571630364328412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-48,58; 480,39</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-42,0; 89,3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-29,01; 87,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="n">
+        <v>1.473520923959962</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.456566762275176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +771,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>7.312220308382518</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.46344962985932</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.65330843729885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 11,49</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 17,34</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 12,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-5.198839586323062</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.822756191765238</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.438762704414053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>10,66%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>61,42%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>37,34%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>21.99479001071139</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.86322623575683</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>12.1734394567243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-52,57; 186,65</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-17,17; 273,81</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-13,86; 145,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.7557576275884681</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.07938119413473468</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.2414440601700919</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>7,8</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>11,06</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>9,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5254467265813154</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.4352919963671176</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2750154310514505</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 17,25</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>3,7; 22,27</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 15,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>5.750147076717663</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.9565922578084025</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.010255941743035</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>506,49%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1041,43%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.7706234707315573</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>9.113250830643855</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>5.214916726293667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.255722973141372</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.389667671455933</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.83780096345672</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>12.21784247447274</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>21.56447961316963</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>12.80799802203802</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-8,68; 19,36</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,88; 9,11</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 11,34</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.05804399399418314</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.7302944335025018</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.4059899716170435</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>61,02%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>36,9%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.5487422209705198</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1698329543891951</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1858995710379389</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-73,9; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-61,48; 713,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.939327581153796</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>2.511597306949882</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.393380301847665</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +983,299 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>8.308972592132308</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>12.03417200637425</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>9.891044285982025</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 11,55</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 4,69</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 6,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>1.289176192626795</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>4.23796418646191</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>4.399918320760639</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>19,52%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>9,47%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>18.31099407104808</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>24.26303195781668</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>16.79603844500355</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-36,74; 125,51</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-28,26; 46,3</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; 56,0</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>4.917199592039908</v>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>9.973330389296054</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr"/>
+      <c r="D32" s="6" t="inlineStr"/>
+      <c r="E32" s="6" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>3.198475755679218</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-0.9511274431454269</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>0.998793662764777</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-10.05365515450518</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-11.55654409816536</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-7.39958931768865</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>16.0643792075108</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>9.343057325219602</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>9.265192424005317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.3887843561970162</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.1657868921847814</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.1416757432534639</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.7313712030185394</v>
+      </c>
+      <c r="D38" s="6" t="inlineStr"/>
+      <c r="E38" s="6" t="n">
+        <v>-0.7117201342083851</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
+      <c r="E39" s="6" t="n">
+        <v>3.338492176173851</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>1.10021233330442</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.5469691156891526</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.803401045520305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-6.849498894134622</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-4.811070473349687</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-3.810751364380328</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>8.465078332489407</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>5.432393504330753</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>4.845682538848326</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.08911902497042491</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.03985168650465781</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.06141765675769723</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.4306394246489295</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.2984384088064782</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.2453737157470392</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.9014200556223472</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.4742820796470266</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.4261625651825685</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1283,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
